--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,19 +11,194 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Test case</t>
+  </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t>Change language</t>
+  </si>
+  <si>
+    <t>Change country</t>
+  </si>
+  <si>
+    <t>Change currency</t>
+  </si>
+  <si>
+    <t>Change zone/state/province</t>
+  </si>
+  <si>
+    <t>Сhange price display</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Enter valid value(enter the full name of the product)</t>
+  </si>
+  <si>
+    <t>Enter valid value(upper and lower case)</t>
+  </si>
+  <si>
+    <t>Enter number</t>
+  </si>
+  <si>
+    <t>Search by first letter</t>
+  </si>
+  <si>
+    <t>Enter Specials</t>
+  </si>
+  <si>
+    <t>Leave the search bar empty</t>
+  </si>
+  <si>
+    <t>Сlear search bar</t>
+  </si>
+  <si>
+    <t>User registration</t>
+  </si>
+  <si>
+    <t>Enter valid value</t>
+  </si>
+  <si>
+    <t>Enter only letters</t>
+  </si>
+  <si>
+    <t>Enter only numbers</t>
+  </si>
+  <si>
+    <t>Enter only specials</t>
+  </si>
+  <si>
+    <t>Leave the input fields empty</t>
+  </si>
+  <si>
+    <t>Fill only neccecery input fields</t>
+  </si>
+  <si>
+    <t>User authorization</t>
+  </si>
+  <si>
+    <t>Enter right login and password(which already exists)</t>
+  </si>
+  <si>
+    <t>Enter right login and wrong password</t>
+  </si>
+  <si>
+    <t>Enter wrong login and right password</t>
+  </si>
+  <si>
+    <t>Enter wrong login and wrong password</t>
+  </si>
+  <si>
+    <t>Leave the field login empty</t>
+  </si>
+  <si>
+    <t>Leave the field password empty</t>
+  </si>
+  <si>
+    <t>Leave both filds empty</t>
+  </si>
+  <si>
+    <t>Enter right login and click the button lost password</t>
+  </si>
+  <si>
+    <t>Product overview page</t>
+  </si>
+  <si>
+    <t>All items can be clicked</t>
+  </si>
+  <si>
+    <t>All itemsare displayed</t>
+  </si>
+  <si>
+    <t>The category can be chosen</t>
+  </si>
+  <si>
+    <t>Product page</t>
+  </si>
+  <si>
+    <t>Item is displayed on the page</t>
+  </si>
+  <si>
+    <t>Quantity can be changed</t>
+  </si>
+  <si>
+    <t>Price is displayed</t>
+  </si>
+  <si>
+    <t>Item can be shared on social media</t>
+  </si>
+  <si>
+    <t>Information about item is displayed</t>
+  </si>
+  <si>
+    <t>Details about product is displayed</t>
+  </si>
+  <si>
+    <t>Add item to the cart</t>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>Remove all items</t>
+  </si>
+  <si>
+    <t>Final price is change when quantity of product changed</t>
+  </si>
+  <si>
+    <t>Enter valid value in the input filds</t>
+  </si>
+  <si>
+    <t>Order Summary shows right information</t>
+  </si>
+  <si>
+    <t>Comments can be add</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +209,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,25 +217,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -98,7 +302,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -170,7 +374,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -343,36 +547,775 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="2">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>6</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="2">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="2">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>7.11</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="2">
+        <v>7.11</v>
+      </c>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>7.12</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="2">
+        <v>7.12</v>
+      </c>
+      <c r="E56" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
